--- a/docs/Sprint3/Sprint_3_Requirements_Stack_Spreadsheet.xlsx
+++ b/docs/Sprint3/Sprint_3_Requirements_Stack_Spreadsheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E79B6A-40F5-489A-B959-96A8E0615D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_AE7F08B2C1DAFD54F4EE8B80812732F13CED4125" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{809C1F2C-5E8B-48E6-8368-DA99521F2E5B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Poker as a game option.</t>
   </si>
@@ -139,13 +139,55 @@
   </si>
   <si>
     <t>Remove user from casino if user reaches 0 currency.</t>
+  </si>
+  <si>
+    <t>BONUS REQUIREMENTS IF TIME PERMITS</t>
+  </si>
+  <si>
+    <t>The GUI for Sabaac will show the player's cards faceup, the cards of the other players facedown, the dice, and the number of chips contained in the Sabaac pot.</t>
+  </si>
+  <si>
+    <t>The GUI should display the discard pile, or an empty space if the discard pile is empty, and the chip values that have been bet for each game.</t>
+  </si>
+  <si>
+    <t>The player should be able to choose between 1 and 3 AI opponents.</t>
+  </si>
+  <si>
+    <t>The GUI should show the positive cards as green, the negative cards as red, 0 cards as any color, and the different suites as represented by a circle, triangle, or square.</t>
+  </si>
+  <si>
+    <t>To begin a game of sabaac, the player and every AI opponent must "buy in" and these chips will go to the sabaac pot.</t>
+  </si>
+  <si>
+    <t>The value in the sabaac pot should be randomized between accesses to the Sabacc mode and between games to simulate activity.</t>
+  </si>
+  <si>
+    <t>In each round, the order of play should remain the same, and the user should play last.</t>
+  </si>
+  <si>
+    <t>At the end of each round, the AI opponents should be able place a bet based on the quality of their hand, either matching a current bet or raising it.</t>
+  </si>
+  <si>
+    <t>AI opponents must initialize with a randomly generated chip balance.</t>
+  </si>
+  <si>
+    <t>After each game, the player should have the option to play again, or leave to return to the Casino.</t>
+  </si>
+  <si>
+    <t>Losing players forfit all chips bet during the game. Once a player reaches a chip amount of zero, they are removed from the game(menu in case of the user)</t>
+  </si>
+  <si>
+    <t>The player is exited to the main menu with all won chips once all AI opponents are removed.</t>
+  </si>
+  <si>
+    <t>The player should be met with genre-appropriate background music whilst playing sabacc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,27 +197,28 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +231,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -286,26 +335,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,616 +776,903 @@
     <col min="2" max="2" width="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="1">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
         <v>2.1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>38</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <v>45</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>46</v>
       </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
         <v>2.4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>37</v>
       </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>48</v>
       </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
         <v>2.6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="6">
         <v>39</v>
       </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
         <v>2.7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>47</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
         <v>2.8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
         <v>2.9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <v>41</v>
       </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="7">
         <v>2.1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <v>42</v>
       </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="8">
         <v>2.11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
         <v>43</v>
       </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="7">
         <v>2.12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>44</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
         <v>2.13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>49</v>
       </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
         <v>2.14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
         <v>2.15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>51</v>
       </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
         <v>2.16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>52</v>
       </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
         <v>2.17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>53</v>
       </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="11">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="10">
         <v>5.4</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>59</v>
       </c>
-      <c r="E20" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="11">
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="10">
         <v>5.8</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>5</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>63</v>
       </c>
-      <c r="E21" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="11">
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="10">
         <v>5.9</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>8</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>64</v>
       </c>
-      <c r="E22" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="11">
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>66</v>
       </c>
-      <c r="E23" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="11">
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="10">
         <v>5.12</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>5</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>67</v>
       </c>
-      <c r="E24" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="11">
+      <c r="E24" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="10">
         <v>5.13</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>68</v>
       </c>
-      <c r="E25" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="11">
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="10">
         <v>5.14</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12">
-        <v>3</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11">
         <v>69</v>
       </c>
-      <c r="E26" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="11">
+      <c r="E26" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="10">
         <v>5.17</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>72</v>
       </c>
-      <c r="E27" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="11">
+      <c r="E27" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="10">
         <v>5.18</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>8</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>73</v>
       </c>
-      <c r="E28" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="11">
+      <c r="E28" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="10">
         <v>5.19</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>5</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>74</v>
       </c>
-      <c r="E29" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="14">
+      <c r="E29" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="12">
         <v>5.2</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>5</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>75</v>
       </c>
-      <c r="E30" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11">
+      <c r="E30" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="10">
         <v>5.21</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>76</v>
       </c>
-      <c r="E31" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11">
+      <c r="E31" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="10">
         <v>5.22</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>2</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>77</v>
       </c>
-      <c r="E32" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11">
+      <c r="E32" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="10">
         <v>5.23</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>2</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>78</v>
       </c>
-      <c r="E33" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
       <c r="A34" s="13">
         <v>5.24</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>2</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>79</v>
       </c>
-      <c r="E34" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="10">
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75">
+      <c r="A35" s="14">
         <v>5.25</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="12">
-        <v>3</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="11">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11">
         <v>80</v>
       </c>
-      <c r="E35" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="E35" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75">
+      <c r="A36" s="3">
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75">
+      <c r="A37" s="3">
         <v>1.2</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>55</v>
       </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15">
+        <f>SUM(C2:C37)</f>
+        <v>122</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75">
+      <c r="A41" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="11">
+        <v>8</v>
+      </c>
+      <c r="D41" s="11">
+        <v>56</v>
+      </c>
+      <c r="E41" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75">
+      <c r="A42" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="11">
+        <v>8</v>
+      </c>
+      <c r="D42" s="11">
+        <v>57</v>
+      </c>
+      <c r="E42" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75">
+      <c r="A43" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="11">
+        <v>5</v>
+      </c>
+      <c r="D43" s="11">
+        <v>58</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75">
+      <c r="A44" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" s="11">
+        <v>60</v>
+      </c>
+      <c r="E44" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="11">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>61</v>
+      </c>
+      <c r="E45" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75">
+      <c r="A46" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11">
+        <v>62</v>
+      </c>
+      <c r="E46" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75">
+      <c r="A47" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3</v>
+      </c>
+      <c r="D47" s="11">
+        <v>65</v>
+      </c>
+      <c r="E47" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75">
+      <c r="A48" s="10">
+        <v>5.15</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="11">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11">
+        <v>70</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75">
+      <c r="A49" s="10">
+        <v>5.16</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="11">
+        <v>3</v>
+      </c>
+      <c r="D49" s="11">
+        <v>71</v>
+      </c>
+      <c r="E49" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75">
+      <c r="A50" s="20">
+        <v>5.26</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="21">
+        <v>2</v>
+      </c>
+      <c r="D50" s="21">
+        <v>81</v>
+      </c>
+      <c r="E50" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75">
+      <c r="A51" s="20">
+        <v>5.27</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="22">
+        <v>3</v>
+      </c>
+      <c r="D51" s="23">
+        <v>82</v>
+      </c>
+      <c r="E51" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75">
+      <c r="A52" s="20">
+        <v>5.28</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="22">
+        <v>2</v>
+      </c>
+      <c r="D52" s="23">
+        <v>83</v>
+      </c>
+      <c r="E52" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75">
+      <c r="A53" s="3">
+        <v>5.29</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3">
+        <v>84</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15">
+        <f>SUM(C41:C53)</f>
+        <v>55</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15">
+        <f>SUM(C54+C38)</f>
+        <v>177</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1269,23 +1680,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D3F149E6A7DBD40B1F3F986E58509B1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="420c3fa83f1c4d9b970947ca78a8affa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21e15ac8-f22a-4a5b-9639-48c1445ab8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="47fe7d1151f9341df73d9739ceb30243" ns2:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D3F149E6A7DBD40B1F3F986E58509B1" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d32130223112b4564bc0899644c2f981">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="21e15ac8-f22a-4a5b-9639-48c1445ab8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b992154f818b33eca47215425bfd7f23" ns2:_="">
     <xsd:import namespace="21e15ac8-f22a-4a5b-9639-48c1445ab8df"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1421,14 +1823,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DFF99CE-D00C-423F-AC3E-2B4B54D4BB84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FB6CC4-C121-4302-B374-6B58E1B78A7A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14FB6CC4-C121-4302-B374-6B58E1B78A7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A20A6B-B422-47F2-8119-AEE5568433EA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94D64601-3C7E-4EDF-A1BA-2D018F16F6E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DFF99CE-D00C-423F-AC3E-2B4B54D4BB84}"/>
 </file>